--- a/DavaoITSolutions_SEO.xlsx
+++ b/DavaoITSolutions_SEO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VILLOSA\Documents\GithubClassic\SEO2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4024F9EF-582E-4A59-B7FF-4BDA28496E8F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7F6403BD-F533-4524-B04C-4DA7A19CDDDC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10785" firstSheet="1" activeTab="3" xr2:uid="{5BE1F0E4-EC65-4125-8D74-D3458246BF72}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10785" firstSheet="2" activeTab="2" xr2:uid="{5BE1F0E4-EC65-4125-8D74-D3458246BF72}"/>
   </bookViews>
   <sheets>
     <sheet name="MainSite" sheetId="1" r:id="rId1"/>
     <sheet name="BlogCommenting" sheetId="2" r:id="rId2"/>
     <sheet name="Social Bookmarking" sheetId="3" r:id="rId3"/>
-    <sheet name="Directiry Submission" sheetId="4" r:id="rId4"/>
+    <sheet name="Directory Submission" sheetId="4" r:id="rId4"/>
     <sheet name="Article Submission" sheetId="5" r:id="rId5"/>
     <sheet name="QandA" sheetId="6" r:id="rId6"/>
     <sheet name="Business Listing" sheetId="7" r:id="rId7"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="83">
   <si>
     <t>Davao It Solutions</t>
   </si>
@@ -172,6 +172,114 @@
   </si>
   <si>
     <t>Keyword: Davao It Solutions</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>http://www.marketinginternetdirectory.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none </t>
+  </si>
+  <si>
+    <t>http://www.allfreethings.com</t>
+  </si>
+  <si>
+    <t>http://www.freeprwebdirectory.com</t>
+  </si>
+  <si>
+    <t>http://www.somuch.com</t>
+  </si>
+  <si>
+    <t>http://www.highrankdirectory.com</t>
+  </si>
+  <si>
+    <t>http://www.submissionwebdirectory.com/</t>
+  </si>
+  <si>
+    <t>http://www.promotebusinessdirectory.com</t>
+  </si>
+  <si>
+    <t>http://allinfolisted.com</t>
+  </si>
+  <si>
+    <t>http://bestsubmitdirectory.com</t>
+  </si>
+  <si>
+    <t>http://bestlinkcollection.com</t>
+  </si>
+  <si>
+    <t>https://www.otherarticles.com/</t>
+  </si>
+  <si>
+    <t>http://articles.abilogic.com</t>
+  </si>
+  <si>
+    <t>https://www.wesrch.com</t>
+  </si>
+  <si>
+    <t>http://www.prfree.org</t>
+  </si>
+  <si>
+    <t>http://www.sooperarticles.com/</t>
+  </si>
+  <si>
+    <t>https://answers.yahoo.com</t>
+  </si>
+  <si>
+    <t>https://www.quora.com</t>
+  </si>
+  <si>
+    <t>https://www.answers.com</t>
+  </si>
+  <si>
+    <t>https://www.question.com</t>
+  </si>
+  <si>
+    <t>http://www.ehelp.com</t>
+  </si>
+  <si>
+    <t>https://www.businesslist.ph/company/301734/travelphservices</t>
+  </si>
+  <si>
+    <t>submitted</t>
+  </si>
+  <si>
+    <t>https://www.businesslist.ph/company/301774/realbreeze-travels-and-tours</t>
+  </si>
+  <si>
+    <t>http://www.philippinesseek.com/seek_member_directory.asp</t>
+  </si>
+  <si>
+    <t>http://www.pinoylisting.com/user/items</t>
+  </si>
+  <si>
+    <t>https://www.hotfrog.ph/WelcomeToHotfrog.aspx?CompanyID=724866</t>
+  </si>
+  <si>
+    <t>http://www.promote.com.ph/my-account/listings/</t>
+  </si>
+  <si>
+    <t>O8I0S9ji4)#z%!VU</t>
+  </si>
+  <si>
+    <t>https://www.hotfrog.com</t>
+  </si>
+  <si>
+    <t>http://mychoice-philippines.com/</t>
+  </si>
+  <si>
+    <t>https://www.yalwa.ph</t>
+  </si>
+  <si>
+    <t>google plus</t>
+  </si>
+  <si>
+    <t>davaotisolutions</t>
+  </si>
+  <si>
+    <t>davaoitsolutions123!</t>
   </si>
 </sst>
 </file>
@@ -238,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -246,6 +354,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -787,7 +898,7 @@
   <dimension ref="A3:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,17 +1006,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CBBDDC-0FFA-4B29-BDC5-CDCF4C755A27}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1021,6 +1132,17 @@
       </c>
       <c r="C11" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1036,52 +1158,461 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2035D4-DD6B-4C90-9680-00E930CD5DD8}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{2F3EE73E-7161-405E-9E52-6DB4D9AF2B10}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{8BAB3911-2385-4B3F-8826-90802B2A9925}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{57ACACA3-B44C-40CF-A147-9C789258487A}"/>
+    <hyperlink ref="A7" r:id="rId4" display="http://www.somuch.com/" xr:uid="{4F23DABB-B9BF-433D-856B-22F0F42925EC}"/>
+    <hyperlink ref="A8" r:id="rId5" xr:uid="{C1413665-32C7-44F4-BF7B-D800B98CF4FC}"/>
+    <hyperlink ref="A9" r:id="rId6" xr:uid="{608F4FFD-4E55-4029-8146-57F1D758EF73}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B6C74E-9DC7-451E-A609-D1E8D67121B9}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{60217323-6B9A-400D-BBF2-F6EEA373E37B}"/>
+    <hyperlink ref="A4" r:id="rId2" display="http://articles.abilogic.com/" xr:uid="{253A460B-0DE9-4A16-8523-18BA074BE17E}"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://www.wesrch.com/" xr:uid="{6F200A78-E4C0-4A39-A63E-6A679B3515D4}"/>
+    <hyperlink ref="A6" r:id="rId4" display="http://www.prfree.org/" xr:uid="{EC726E05-7C3A-4D50-9A14-02C314C1AB21}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{ED5EEE25-4758-408F-BBA7-59D0B5DCCE16}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2B8E94-D1B3-4F09-A4D6-BA5A2C5B5576}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://answers.yahoo.com/" xr:uid="{18518ABE-3B79-432D-9D6D-30A77B1815F2}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://www.quora.com/" xr:uid="{5AFCEC57-1838-4A5D-B380-2ABECA4DD73A}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://www.answers.com/" xr:uid="{D0F8003E-F9A6-4719-BE3A-630068031944}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://www.question.com/" xr:uid="{31077B2E-0DE5-4DB9-B0FF-5ABF6FAB3C58}"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://www.ehelp.com/" xr:uid="{36610146-6DC1-4F1E-AD76-410C32F820E0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F2F72C-AE6F-4B30-BF57-5C1202D7B7B5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B94836F0-DF0E-4E2D-A1D1-AFEEE808E3FF}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{25FAB419-3420-467C-B372-A0DDCAB5CDC9}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{204B818C-13E1-4DEB-9E16-528299DB8104}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{76E0FAED-3932-4761-8EF8-89AFB3C6796D}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{69D912C6-6FA8-4AB3-94AE-2DE43EA8C944}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{F20E4691-7F70-47DF-A9EB-C860D62D4675}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>